--- a/data/trans_orig/IMC-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Dificultad-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>26.56590040482196</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26.96651255643541</v>
+        <v>26.9665125564354</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>26.30879358384738</v>
@@ -693,7 +693,7 @@
         <v>26.71140523207051</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>27.03604258054175</v>
+        <v>27.03604258054176</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>25.97216903862746</v>
+        <v>25.98031659494563</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>26.41417145420998</v>
+        <v>26.38570773000233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26.28012800727391</v>
+        <v>26.28624049088803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26.48686200968368</v>
+        <v>26.44587172553349</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>25.98401644798772</v>
+        <v>25.96117901939043</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>26.58756663375498</v>
+        <v>26.57725114973043</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>26.53079465178846</v>
+        <v>26.53231792616699</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>26.69674204610758</v>
+        <v>26.70489252587376</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>26.03795772635578</v>
+        <v>26.07211944480576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26.57825658988136</v>
+        <v>26.57625839807239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26.4875297023073</v>
+        <v>26.50179534161987</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>26.71338157951084</v>
+        <v>26.70568645527045</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.56657699566631</v>
+        <v>26.59366036522259</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.96857162009071</v>
+        <v>26.96282271407578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.84854565721643</v>
+        <v>26.8478172530042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.5163610566193</v>
+        <v>27.52875758215018</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>26.66008640958598</v>
+        <v>26.67242014397827</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>27.21595247507579</v>
+        <v>27.24657532476419</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>27.17769239001055</v>
+        <v>27.174530639513</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>27.50881905012368</v>
+        <v>27.50623129574399</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>26.52788267409385</v>
+        <v>26.52037188226861</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27.00667182158117</v>
+        <v>27.01482586857137</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26.93056088987373</v>
+        <v>26.9441799483794</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>27.32578638733087</v>
+        <v>27.36475886556435</v>
       </c>
     </row>
     <row r="7">
@@ -808,7 +808,7 @@
         <v>26.8030069848667</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>25.55092860289114</v>
+        <v>25.55092860289113</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>26.34411760161884</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25.85262788786771</v>
+        <v>25.85442874768394</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>26.58117309748499</v>
+        <v>26.58157355571381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26.173851073744</v>
+        <v>26.17089753723097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26.49059672875708</v>
+        <v>26.47263001362331</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>25.26337435195669</v>
+        <v>25.28096977370947</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.03779546711186</v>
+        <v>26.03498209439281</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>25.60017243100515</v>
+        <v>25.58843769286704</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>26.12254935392993</v>
+        <v>26.10992021101267</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>25.61864457769873</v>
+        <v>25.64418977833219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26.38335152437304</v>
+        <v>26.34985220783055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25.95550869889144</v>
+        <v>25.95560483988664</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>26.37505079778571</v>
+        <v>26.37806338989318</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.29257909383562</v>
+        <v>26.29861794248838</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>27.08263965049686</v>
+        <v>27.08705280303725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.71764809096542</v>
+        <v>26.74223342832343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27.12172377776022</v>
+        <v>27.10915521862356</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>25.85646824905774</v>
+        <v>25.85196799563875</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.67557751449489</v>
+        <v>26.66011913766626</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>26.22154820702907</v>
+        <v>26.22021994676509</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.62381728889716</v>
+        <v>26.63461915216881</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>25.99250376491975</v>
+        <v>26.01078829738668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26.78914446370486</v>
+        <v>26.79224038463015</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26.3780621288869</v>
+        <v>26.36838498449709</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>26.77525779923923</v>
+        <v>26.78179951216851</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.64397209114413</v>
+        <v>25.6221390463238</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.43273414145361</v>
+        <v>26.44766860593411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.08396564286907</v>
+        <v>26.08851236637058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26.24390001993698</v>
+        <v>26.23347822900667</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>24.46173053985869</v>
+        <v>24.467055232825</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>25.64843779370455</v>
+        <v>25.64408478205449</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>24.87409861717563</v>
+        <v>24.87559875624787</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>25.24483778881946</v>
+        <v>25.23779301120781</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.14434460203731</v>
+        <v>25.14827312132255</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26.10423910500734</v>
+        <v>26.11393073280304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25.59129411533059</v>
+        <v>25.59674907104316</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>25.81368559259497</v>
+        <v>25.81543973999311</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.04578708708367</v>
+        <v>26.05958017010983</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.95772123750192</v>
+        <v>26.96842302833063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.64671460633726</v>
+        <v>26.65780467806658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.7821046445053</v>
+        <v>26.80026621481191</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>25.02672848625534</v>
+        <v>25.04366326690695</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.2689861283859</v>
+        <v>26.30427772987272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>25.56365430629057</v>
+        <v>25.57830537936476</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>25.76882976462269</v>
+        <v>25.74774534941081</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>25.5069803522747</v>
+        <v>25.49811083604158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26.55423079369796</v>
+        <v>26.53920127004773</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26.04791358850672</v>
+        <v>26.03967132073219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>26.20519253847153</v>
+        <v>26.18056154788528</v>
       </c>
     </row>
     <row r="13">
@@ -1098,7 +1098,7 @@
         <v>25.67638204189035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25.82251694126935</v>
+        <v>25.82251694126934</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>25.74465033249515</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>25.60114557936865</v>
+        <v>25.62601886281077</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>25.86911756467317</v>
+        <v>25.90345638464618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25.97582740700259</v>
+        <v>26.01339090508979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26.15628061082219</v>
+        <v>26.14964442872634</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>23.56524975722813</v>
+        <v>23.54855878162681</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.62146548439401</v>
+        <v>24.64827621707051</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>24.75787227959453</v>
+        <v>24.82774756797077</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>24.75005043204075</v>
+        <v>24.75789225948621</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>24.79889586158025</v>
+        <v>24.79662699228934</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25.39130379075084</v>
+        <v>25.36858327353085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25.52355924639971</v>
+        <v>25.55553555797842</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>25.53407989541905</v>
+        <v>25.56087084794367</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.28561583460774</v>
+        <v>26.27734132989048</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.5657728501265</v>
+        <v>26.60829579480598</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.80074524701276</v>
+        <v>26.81109057889908</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26.74139845406962</v>
+        <v>26.72486426352159</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>24.48199500999299</v>
+        <v>24.5143433799959</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.55009246447996</v>
+        <v>25.59955607663374</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>25.73461020608708</v>
+        <v>25.70730250532745</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>25.26077825612171</v>
+        <v>25.27883794052228</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>25.36808394118225</v>
+        <v>25.33990695191119</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25.96491147475718</v>
+        <v>25.9635689613053</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26.15285687140402</v>
+        <v>26.16002265607356</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>25.9469422426148</v>
+        <v>25.95170733254288</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>26.22521156234728</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>26.25894932484456</v>
+        <v>26.25894932484455</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>25.88384018033415</v>
+        <v>25.87168417152614</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>26.52715504809817</v>
+        <v>26.50837402248759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26.29504163215048</v>
+        <v>26.29947734836674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26.46902666190416</v>
+        <v>26.48931398329207</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>25.18336802643747</v>
+        <v>25.19894783569699</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.07215886743411</v>
+        <v>26.08667075694363</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>25.82385711934663</v>
+        <v>25.81141217038677</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>25.75457505321613</v>
+        <v>25.74483165785349</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>25.55889546768638</v>
+        <v>25.57461729715937</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26.34464697868773</v>
+        <v>26.33391794675136</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26.11855569839673</v>
+        <v>26.10078334440452</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>26.15250819770606</v>
+        <v>26.15260066570381</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.13006575945703</v>
+        <v>26.11988913110675</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.81549194243511</v>
+        <v>26.78765519810699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.61282640513283</v>
+        <v>26.59412534328045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.80092360670648</v>
+        <v>26.79906792885059</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>25.5372351613701</v>
+        <v>25.52003441138849</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.42099213854745</v>
+        <v>26.45180462277908</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>26.18197405096065</v>
+        <v>26.16844590524531</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.04035350038087</v>
+        <v>26.03206242607667</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.77278675282401</v>
+        <v>25.77559289719244</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26.57953457436451</v>
+        <v>26.56935228161812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26.34674143011568</v>
+        <v>26.34227188085138</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>26.36538982482485</v>
+        <v>26.37069227171527</v>
       </c>
     </row>
     <row r="19">
